--- a/arima/arima_results.xlsx
+++ b/arima/arima_results.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_fcsts" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model_summaries" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="best_fcst" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model_summaries" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="best_fcst" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_fcsts" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_set_predictions" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_test_set_predictions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_fcsts" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_fcsts" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_test_set_predictions" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,232 +445,616 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>ModelNickname</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Estimator</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Xvars</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>HyperParams</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scaler</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Observations</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tuned</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CrossValidated</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DynamicallyTested</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TestSetLength</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>TestSetRMSE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TestSetMAPE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>TestSetMAE</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>TestSetR2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LastTestSetPrediction</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LastTestSetActual</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>CILevel</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>CIPlusMinus</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>InSampleRMSE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>InSampleMAPE</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>InSampleMAE</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>InSampleR2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ValidationSetLength</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ValidationMetric</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ValidationMetricValue</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>weights</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>LevelTestSetRMSE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>LevelTestSetMAPE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>LevelTestSetMAE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>LevelTestSetR2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>LevelInSampleRMSE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>LevelInSampleMAPE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>LevelInSampleMAE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>LevelInSampleR2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>best_model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>arima4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'order': (0, 1, 1), 'seasonal_order': (2, 1, 1, 12)}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>144</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28</v>
+      </c>
+      <c r="L2" t="n">
+        <v>19.19281796605924</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.03637091733066949</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15.66664676539078</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9402754011593087</v>
+      </c>
+      <c r="P2" t="n">
+        <v>438.1146320686238</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>432</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S2" t="n">
+        <v>30.79355257529719</v>
+      </c>
+      <c r="T2" t="n">
+        <v>15.24908273647975</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.04453164220547056</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.633844421979767</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9837297118521032</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
+        <v>65.85128992279132</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>19.19281796605924</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.03637091733066949</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15.66664676539078</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9402754011593087</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>15.24908273647975</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.04453164220547056</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>9.633844421979767</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.9837297118521032</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>arima2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'order': (1, 1, 1), 'seasonal_order': (2, 1, 1, 12)}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>144</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19.03777647581359</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.03718785848354</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15.74646183532138</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9412364262750431</v>
+      </c>
+      <c r="P3" t="n">
+        <v>444.5483395684075</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>432</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S3" t="n">
+        <v>33.54553684369144</v>
+      </c>
+      <c r="T3" t="n">
+        <v>15.24615746246677</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.04444567400005563</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9.6080373851921</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.9837359536027422</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>19.03777647581359</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.03718785848354</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15.74646183532138</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.9412364262750431</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>15.24615746246677</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.04444567400005563</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9.6080373851921</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.9837359536027422</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>arima3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'order': (1, 1, 1), 'seasonal_order': (0, 1, 0, 12), 'trend': None}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>144</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25.6084104616398</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.04585743403125934</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20.31709360456436</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8936736275396591</v>
+      </c>
+      <c r="P4" t="n">
+        <v>434.8247161589131</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>432</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S4" t="n">
+        <v>29.68498719928457</v>
+      </c>
+      <c r="T4" t="n">
+        <v>15.70138041687357</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.04625983390164531</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10.19410298833471</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9827502234101106</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>25.6084104616398</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.04585743403125934</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>20.31709360456436</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.8936736275396591</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>15.70138041687357</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.04625983390164531</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10.19410298833471</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.9827502234101106</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>arima1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>arima2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>arima3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>arima4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>22282</v>
-      </c>
-      <c r="B2" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C2" t="n">
-        <v>451.0382001637292</v>
-      </c>
-      <c r="D2" t="n">
-        <v>444.3076088535718</v>
-      </c>
-      <c r="E2" t="n">
-        <v>451.4815094415424</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>22313</v>
-      </c>
-      <c r="B3" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C3" t="n">
-        <v>424.5139950156517</v>
-      </c>
-      <c r="D3" t="n">
-        <v>418.2129856467799</v>
-      </c>
-      <c r="E3" t="n">
-        <v>425.1206084587052</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>22341</v>
-      </c>
-      <c r="B4" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C4" t="n">
-        <v>466.582288573334</v>
-      </c>
-      <c r="D4" t="n">
-        <v>446.2420925829417</v>
-      </c>
-      <c r="E4" t="n">
-        <v>467.1823211911635</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>22372</v>
-      </c>
-      <c r="B5" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C5" t="n">
-        <v>494.625885452314</v>
-      </c>
-      <c r="D5" t="n">
-        <v>488.2331390316783</v>
-      </c>
-      <c r="E5" t="n">
-        <v>495.1893787265878</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>22402</v>
-      </c>
-      <c r="B6" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C6" t="n">
-        <v>512.1179785735696</v>
-      </c>
-      <c r="D6" t="n">
-        <v>499.2358932233178</v>
-      </c>
-      <c r="E6" t="n">
-        <v>512.6741708206189</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>22433</v>
-      </c>
-      <c r="B7" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C7" t="n">
-        <v>575.6847201136479</v>
-      </c>
-      <c r="D7" t="n">
-        <v>562.2350460095851</v>
-      </c>
-      <c r="E7" t="n">
-        <v>576.2258459892338</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>22463</v>
-      </c>
-      <c r="B8" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C8" t="n">
-        <v>665.7909480003775</v>
-      </c>
-      <c r="D8" t="n">
-        <v>649.2353066200301</v>
-      </c>
-      <c r="E8" t="n">
-        <v>666.2893041307465</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>22494</v>
-      </c>
-      <c r="B9" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C9" t="n">
-        <v>657.8075879998648</v>
-      </c>
-      <c r="D9" t="n">
-        <v>633.2352264539498</v>
-      </c>
-      <c r="E9" t="n">
-        <v>658.317323933609</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>22525</v>
-      </c>
-      <c r="B10" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C10" t="n">
-        <v>552.1824440795825</v>
-      </c>
-      <c r="D10" t="n">
-        <v>535.2352511137459</v>
-      </c>
-      <c r="E10" t="n">
-        <v>552.7350680759429</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>22555</v>
-      </c>
-      <c r="B11" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C11" t="n">
-        <v>499.295430714633</v>
-      </c>
-      <c r="D11" t="n">
-        <v>488.2352435281742</v>
-      </c>
-      <c r="E11" t="n">
-        <v>499.8571516543738</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>22586</v>
-      </c>
-      <c r="B12" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C12" t="n">
-        <v>432.1780703871877</v>
-      </c>
-      <c r="D12" t="n">
-        <v>417.2352458615632</v>
-      </c>
-      <c r="E12" t="n">
-        <v>432.7712125058507</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>22616</v>
-      </c>
-      <c r="B13" t="n">
-        <v>280.2986053603354</v>
-      </c>
-      <c r="C13" t="n">
-        <v>476.9705503966624</v>
-      </c>
-      <c r="D13" t="n">
-        <v>459.2352451437922</v>
-      </c>
-      <c r="E13" t="n">
-        <v>477.5373026395505</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>144</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28</v>
+      </c>
+      <c r="L5" t="n">
+        <v>210.9325520467613</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4300655881960726</v>
+      </c>
+      <c r="N5" t="n">
+        <v>195.7672782342478</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-6.213781224596234</v>
+      </c>
+      <c r="P5" t="n">
+        <v>242.2327217657522</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>432</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>230.8841316203446</v>
+      </c>
+      <c r="T5" t="n">
+        <v>119.5490415327716</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.4424570933913727</v>
+      </c>
+      <c r="V5" t="n">
+        <v>100.4429005955928</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-2.442490654175344e-15</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>210.9325520467613</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.4300655881960726</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>195.7672782342478</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-6.213781224596234</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>119.5490415327716</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.4424570933913727</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>100.4429005955928</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-2.442490654175344e-15</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -679,572 +1063,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AG5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ModelNickname</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Estimator</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Xvars</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HyperParams</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Scaler</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Observations</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Tuned</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DynamicallyTested</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Integration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>TestSetLength</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>TestSetRMSE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>TestSetMAPE</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>TestSetMAE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>TestSetR2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>LastTestSetPrediction</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>LastTestSetActual</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>CILevel</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>CIPlusMinus</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>InSampleRMSE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>InSampleMAPE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>InSampleMAE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>InSampleR2</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>ValidationSetLength</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>ValidationMetric</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>ValidationMetricValue</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>univariate</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>models</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>weights</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>LevelTestSetRMSE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>LevelTestSetMAPE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>LevelTestSetMAE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>LevelTestSetR2</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>best_model</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>arima4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>{'order': (0, 1, 1), 'seasonal_order': (2, 1, 1, 12)}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>144</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>28</v>
-      </c>
-      <c r="K2" t="n">
-        <v>19.18856158430263</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.03636606308682543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15.66373842326349</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.9403018884114971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>438.124533629147</v>
-      </c>
-      <c r="P2" t="n">
-        <v>432</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R2" t="n">
-        <v>37.29712562213199</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15.24797446498672</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.04454018554204239</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9.63435421061823</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.9837320767473023</v>
-      </c>
-      <c r="W2" t="n">
-        <v>12</v>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y2" t="n">
-        <v>17.14669956652931</v>
-      </c>
-      <c r="Z2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="n">
-        <v>19.18856158430263</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.03636606308682543</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15.66373842326349</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.9403018884114971</v>
-      </c>
-      <c r="AG2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>arima2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>{'order': (1, 1, 1), 'seasonal_order': (2, 1, 1, 12)}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>144</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>28</v>
-      </c>
-      <c r="K3" t="n">
-        <v>19.03696975263171</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0371667586982085</v>
-      </c>
-      <c r="M3" t="n">
-        <v>15.74350388461374</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.9412414063663709</v>
-      </c>
-      <c r="O3" t="n">
-        <v>444.3924182333876</v>
-      </c>
-      <c r="P3" t="n">
-        <v>432</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R3" t="n">
-        <v>18.79811276078767</v>
-      </c>
-      <c r="S3" t="n">
-        <v>15.24535921908748</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.04444741196167276</v>
-      </c>
-      <c r="U3" t="n">
-        <v>9.607605282905332</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.9837376566321805</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>19.03696975263171</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.0371667586982085</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15.74350388461374</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.9412414063663709</v>
-      </c>
-      <c r="AG3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>arima3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>{'order': (1, 1, 0), 'seasonal_order': (0, 1, 0, 12), 'trend': None}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>144</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23.52174690715443</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.04422345338751698</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19.1868745316049</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.9102953619551211</v>
-      </c>
-      <c r="O4" t="n">
-        <v>444.3667732230647</v>
-      </c>
-      <c r="P4" t="n">
-        <v>432</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R4" t="n">
-        <v>30.24160844010187</v>
-      </c>
-      <c r="S4" t="n">
-        <v>15.70138538365634</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.04625471529850433</v>
-      </c>
-      <c r="U4" t="n">
-        <v>10.19282809154969</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.9827502124969419</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>23.52174690715443</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.04422345338751698</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19.1868745316049</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.9102953619551211</v>
-      </c>
-      <c r="AG4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>arima1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>144</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>28</v>
-      </c>
-      <c r="K5" t="n">
-        <v>210.9325520467613</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.4300655881960726</v>
-      </c>
-      <c r="M5" t="n">
-        <v>195.7672782342478</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-6.213781224596234</v>
-      </c>
-      <c r="O5" t="n">
-        <v>242.2327217657522</v>
-      </c>
-      <c r="P5" t="n">
-        <v>432</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R5" t="n">
-        <v>231.1472204067908</v>
-      </c>
-      <c r="S5" t="n">
-        <v>119.5490415327716</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.4424570933913727</v>
-      </c>
-      <c r="U5" t="n">
-        <v>100.4429005955928</v>
-      </c>
-      <c r="V5" t="n">
-        <v>-2.442490654175344e-15</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>210.9325520467613</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.4300655881960726</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>195.7672782342478</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>-6.213781224596234</v>
-      </c>
-      <c r="AG5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3152,7 +2970,7 @@
         <v>22282</v>
       </c>
       <c r="B146" t="n">
-        <v>451.4815094415424</v>
+        <v>451.4591371237576</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3165,7 +2983,7 @@
         <v>22313</v>
       </c>
       <c r="B147" t="n">
-        <v>425.1206084587052</v>
+        <v>425.1124990972848</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3178,7 +2996,7 @@
         <v>22341</v>
       </c>
       <c r="B148" t="n">
-        <v>467.1823211911635</v>
+        <v>467.1796529714489</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3191,7 +3009,7 @@
         <v>22372</v>
       </c>
       <c r="B149" t="n">
-        <v>495.1893787265878</v>
+        <v>495.152796886264</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3204,7 +3022,7 @@
         <v>22402</v>
       </c>
       <c r="B150" t="n">
-        <v>512.6741708206189</v>
+        <v>512.6328033357502</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3217,7 +3035,7 @@
         <v>22433</v>
       </c>
       <c r="B151" t="n">
-        <v>576.2258459892338</v>
+        <v>576.1672358207859</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3230,7 +3048,7 @@
         <v>22463</v>
       </c>
       <c r="B152" t="n">
-        <v>666.2893041307465</v>
+        <v>666.1959679628384</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3243,7 +3061,7 @@
         <v>22494</v>
       </c>
       <c r="B153" t="n">
-        <v>658.317323933609</v>
+        <v>658.2364711157092</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3256,7 +3074,7 @@
         <v>22525</v>
       </c>
       <c r="B154" t="n">
-        <v>552.7350680759429</v>
+        <v>552.6899891915468</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3269,7 +3087,7 @@
         <v>22555</v>
       </c>
       <c r="B155" t="n">
-        <v>499.8571516543738</v>
+        <v>499.8200391359002</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3282,7 +3100,7 @@
         <v>22586</v>
       </c>
       <c r="B156" t="n">
-        <v>432.7712125058507</v>
+        <v>432.7623060248544</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3295,12 +3113,262 @@
         <v>22616</v>
       </c>
       <c r="B157" t="n">
-        <v>477.5373026395505</v>
+        <v>477.5182491535732</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
           <t>arima4</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>arima1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>arima2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>arima3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arima4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>22282</v>
+      </c>
+      <c r="B2" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C2" t="n">
+        <v>451.0474233731377</v>
+      </c>
+      <c r="D2" t="n">
+        <v>444.3498331039633</v>
+      </c>
+      <c r="E2" t="n">
+        <v>451.4591371237576</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>22313</v>
+      </c>
+      <c r="B3" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C3" t="n">
+        <v>424.5357012091908</v>
+      </c>
+      <c r="D3" t="n">
+        <v>418.2438672521797</v>
+      </c>
+      <c r="E3" t="n">
+        <v>425.1124990972848</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>22341</v>
+      </c>
+      <c r="B4" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C4" t="n">
+        <v>466.601294360477</v>
+      </c>
+      <c r="D4" t="n">
+        <v>446.2759647341424</v>
+      </c>
+      <c r="E4" t="n">
+        <v>467.1796529714489</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>22372</v>
+      </c>
+      <c r="B5" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C5" t="n">
+        <v>494.6397047109912</v>
+      </c>
+      <c r="D5" t="n">
+        <v>488.2662422779831</v>
+      </c>
+      <c r="E5" t="n">
+        <v>495.152796886264</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>22402</v>
+      </c>
+      <c r="B6" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C6" t="n">
+        <v>512.1335709071662</v>
+      </c>
+      <c r="D6" t="n">
+        <v>499.2691872489899</v>
+      </c>
+      <c r="E6" t="n">
+        <v>512.6328033357502</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>22433</v>
+      </c>
+      <c r="B7" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C7" t="n">
+        <v>575.67315689343</v>
+      </c>
+      <c r="D7" t="n">
+        <v>562.2682952054477</v>
+      </c>
+      <c r="E7" t="n">
+        <v>576.1672358207859</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>22463</v>
+      </c>
+      <c r="B8" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C8" t="n">
+        <v>665.7816508687034</v>
+      </c>
+      <c r="D8" t="n">
+        <v>649.2685654090182</v>
+      </c>
+      <c r="E8" t="n">
+        <v>666.1959679628384</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>22494</v>
+      </c>
+      <c r="B9" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C9" t="n">
+        <v>657.8092058654179</v>
+      </c>
+      <c r="D9" t="n">
+        <v>633.2684835632718</v>
+      </c>
+      <c r="E9" t="n">
+        <v>658.2364711157092</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>22525</v>
+      </c>
+      <c r="B10" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C10" t="n">
+        <v>552.1909182804427</v>
+      </c>
+      <c r="D10" t="n">
+        <v>535.2685083546771</v>
+      </c>
+      <c r="E10" t="n">
+        <v>552.6899891915468</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>22555</v>
+      </c>
+      <c r="B11" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C11" t="n">
+        <v>499.3103306594147</v>
+      </c>
+      <c r="D11" t="n">
+        <v>488.2685008452611</v>
+      </c>
+      <c r="E11" t="n">
+        <v>499.8200391359002</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>22586</v>
+      </c>
+      <c r="B12" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C12" t="n">
+        <v>432.2071194981135</v>
+      </c>
+      <c r="D12" t="n">
+        <v>417.2685031198934</v>
+      </c>
+      <c r="E12" t="n">
+        <v>432.7623060248544</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>22616</v>
+      </c>
+      <c r="B13" t="n">
+        <v>280.2986053603354</v>
+      </c>
+      <c r="C13" t="n">
+        <v>476.9969761525745</v>
+      </c>
+      <c r="D13" t="n">
+        <v>459.2685024308981</v>
+      </c>
+      <c r="E13" t="n">
+        <v>477.5182491535732</v>
       </c>
     </row>
   </sheetData>
@@ -3362,13 +3430,13 @@
         <v>404</v>
       </c>
       <c r="C2" t="n">
-        <v>436.5353511907536</v>
+        <v>436.5338292508448</v>
       </c>
       <c r="D2" t="n">
-        <v>437.9451488691266</v>
+        <v>437.9718247358352</v>
       </c>
       <c r="E2" t="n">
-        <v>439.7728806025806</v>
+        <v>440.8213505051179</v>
       </c>
       <c r="F2" t="n">
         <v>242.2327217657522</v>
@@ -3382,13 +3450,13 @@
         <v>359</v>
       </c>
       <c r="C3" t="n">
-        <v>377.6377673990267</v>
+        <v>377.6371981033059</v>
       </c>
       <c r="D3" t="n">
-        <v>380.2974225175967</v>
+        <v>380.3419482205641</v>
       </c>
       <c r="E3" t="n">
-        <v>383.1862190034445</v>
+        <v>382.8767279318231</v>
       </c>
       <c r="F3" t="n">
         <v>242.2327217657522</v>
@@ -3402,13 +3470,13 @@
         <v>310</v>
       </c>
       <c r="C4" t="n">
-        <v>334.7612744547981</v>
+        <v>334.7601881275545</v>
       </c>
       <c r="D4" t="n">
-        <v>336.6701249751483</v>
+        <v>336.7194361707129</v>
       </c>
       <c r="E4" t="n">
-        <v>341.1095061725893</v>
+        <v>340.1196650307207</v>
       </c>
       <c r="F4" t="n">
         <v>242.2327217657522</v>
@@ -3422,13 +3490,13 @@
         <v>337</v>
       </c>
       <c r="C5" t="n">
-        <v>368.358189651823</v>
+        <v>368.3542729555913</v>
       </c>
       <c r="D5" t="n">
-        <v>370.6721972491433</v>
+        <v>370.7273179389018</v>
       </c>
       <c r="E5" t="n">
-        <v>372.123743558725</v>
+        <v>370.5129208638665</v>
       </c>
       <c r="F5" t="n">
         <v>242.2327217657522</v>
@@ -3442,13 +3510,13 @@
         <v>360</v>
       </c>
       <c r="C6" t="n">
-        <v>374.1458487428234</v>
+        <v>374.1395493774649</v>
       </c>
       <c r="D6" t="n">
-        <v>376.1976801367973</v>
+        <v>376.2545104254584</v>
       </c>
       <c r="E6" t="n">
-        <v>376.1211011954891</v>
+        <v>374.0266488731566</v>
       </c>
       <c r="F6" t="n">
         <v>242.2327217657522</v>
@@ -3462,13 +3530,13 @@
         <v>342</v>
       </c>
       <c r="C7" t="n">
-        <v>351.4654247221643</v>
+        <v>351.4585294229796</v>
       </c>
       <c r="D7" t="n">
-        <v>353.6348885866233</v>
+        <v>353.7042107460638</v>
       </c>
       <c r="E7" t="n">
-        <v>354.1215916003573</v>
+        <v>351.6369286881651</v>
       </c>
       <c r="F7" t="n">
         <v>242.2327217657522</v>
@@ -3482,13 +3550,13 @@
         <v>406</v>
       </c>
       <c r="C8" t="n">
-        <v>401.2609257015596</v>
+        <v>401.2464407449835</v>
       </c>
       <c r="D8" t="n">
-        <v>403.2193944635058</v>
+        <v>403.291801496395</v>
       </c>
       <c r="E8" t="n">
-        <v>398.1215005845077</v>
+        <v>395.324589451089</v>
       </c>
       <c r="F8" t="n">
         <v>242.2327217657522</v>
@@ -3502,13 +3570,13 @@
         <v>396</v>
       </c>
       <c r="C9" t="n">
-        <v>387.8447031295033</v>
+        <v>387.8286029672588</v>
       </c>
       <c r="D9" t="n">
-        <v>389.8142988570226</v>
+        <v>389.8948471678091</v>
       </c>
       <c r="E9" t="n">
-        <v>384.121517476438</v>
+        <v>381.0742667765797</v>
       </c>
       <c r="F9" t="n">
         <v>242.2327217657522</v>
@@ -3522,13 +3590,13 @@
         <v>420</v>
       </c>
       <c r="C10" t="n">
-        <v>402.9808374704517</v>
+        <v>402.9662391884097</v>
       </c>
       <c r="D10" t="n">
-        <v>404.9477159146676</v>
+        <v>405.0204418656579</v>
       </c>
       <c r="E10" t="n">
-        <v>399.1215143414092</v>
+        <v>395.8736469570526</v>
       </c>
       <c r="F10" t="n">
         <v>242.2327217657522</v>
@@ -3542,13 +3610,13 @@
         <v>472</v>
       </c>
       <c r="C11" t="n">
-        <v>479.0794268252364</v>
+        <v>479.0611167638305</v>
       </c>
       <c r="D11" t="n">
-        <v>481.0279277661339</v>
+        <v>481.0828563980685</v>
       </c>
       <c r="E11" t="n">
-        <v>471.1215149232495</v>
+        <v>467.7128612349202</v>
       </c>
       <c r="F11" t="n">
         <v>242.2327217657522</v>
@@ -3562,13 +3630,13 @@
         <v>548</v>
       </c>
       <c r="C12" t="n">
-        <v>535.6309902759155</v>
+        <v>535.6149745231992</v>
       </c>
       <c r="D12" t="n">
-        <v>537.6072912175422</v>
+        <v>537.6487020964604</v>
       </c>
       <c r="E12" t="n">
-        <v>527.1215148152639</v>
+        <v>523.5840003451907</v>
       </c>
       <c r="F12" t="n">
         <v>242.2327217657522</v>
@@ -3582,13 +3650,13 @@
         <v>559</v>
       </c>
       <c r="C13" t="n">
-        <v>547.8107726581947</v>
+        <v>547.7980283639345</v>
       </c>
       <c r="D13" t="n">
-        <v>549.8770618612675</v>
+        <v>549.9023592437325</v>
       </c>
       <c r="E13" t="n">
-        <v>541.1215148353053</v>
+        <v>537.480725448131</v>
       </c>
       <c r="F13" t="n">
         <v>242.2327217657522</v>
@@ -3602,13 +3670,13 @@
         <v>463</v>
       </c>
       <c r="C14" t="n">
-        <v>475.3343141259315</v>
+        <v>475.3236318582438</v>
       </c>
       <c r="D14" t="n">
-        <v>478.611077864157</v>
+        <v>478.6716352519483</v>
       </c>
       <c r="E14" t="n">
-        <v>475.8943954341664</v>
+        <v>473.2193068183697</v>
       </c>
       <c r="F14" t="n">
         <v>242.2327217657522</v>
@@ -3622,13 +3690,13 @@
         <v>407</v>
       </c>
       <c r="C15" t="n">
-        <v>413.0366447451038</v>
+        <v>413.0301306232778</v>
       </c>
       <c r="D15" t="n">
-        <v>417.4162939102168</v>
+        <v>417.5026337489207</v>
       </c>
       <c r="E15" t="n">
-        <v>419.3077338357206</v>
+        <v>415.2083493477889</v>
       </c>
       <c r="F15" t="n">
         <v>242.2327217657522</v>
@@ -3642,13 +3710,13 @@
         <v>362</v>
       </c>
       <c r="C16" t="n">
-        <v>367.7749371645182</v>
+        <v>367.7701019707224</v>
       </c>
       <c r="D16" t="n">
-        <v>371.5306383326069</v>
+        <v>371.6260115637393</v>
       </c>
       <c r="E16" t="n">
-        <v>377.2310210047373</v>
+        <v>372.3981226845626</v>
       </c>
       <c r="F16" t="n">
         <v>242.2327217657522</v>
@@ -3662,13 +3730,13 @@
         <v>405</v>
       </c>
       <c r="C17" t="n">
-        <v>402.3398676109092</v>
+        <v>402.3331263580571</v>
       </c>
       <c r="D17" t="n">
-        <v>406.4750587498256</v>
+        <v>406.5755994254872</v>
       </c>
       <c r="E17" t="n">
-        <v>408.2452583908968</v>
+        <v>402.7487706940919</v>
       </c>
       <c r="F17" t="n">
         <v>242.2327217657522</v>
@@ -3682,13 +3750,13 @@
         <v>417</v>
       </c>
       <c r="C18" t="n">
-        <v>408.2400714710369</v>
+        <v>408.232229793001</v>
       </c>
       <c r="D18" t="n">
-        <v>412.1748504211137</v>
+        <v>412.2797710971028</v>
       </c>
       <c r="E18" t="n">
-        <v>412.2426160276564</v>
+        <v>406.22835088237</v>
       </c>
       <c r="F18" t="n">
         <v>242.2327217657522</v>
@@ -3702,13 +3770,13 @@
         <v>391</v>
       </c>
       <c r="C19" t="n">
-        <v>383.0754448806168</v>
+        <v>383.0696768264326</v>
       </c>
       <c r="D19" t="n">
-        <v>387.1434179611473</v>
+        <v>387.2643122404937</v>
       </c>
       <c r="E19" t="n">
-        <v>390.2431064325253</v>
+        <v>383.8112631019256</v>
       </c>
       <c r="F19" t="n">
         <v>242.2327217657522</v>
@@ -3722,13 +3790,13 @@
         <v>419</v>
       </c>
       <c r="C20" t="n">
-        <v>434.5201437504227</v>
+        <v>434.5087881018126</v>
       </c>
       <c r="D20" t="n">
-        <v>438.3979087948562</v>
+        <v>438.5223327577543</v>
       </c>
       <c r="E20" t="n">
-        <v>434.2430154166755</v>
+        <v>427.4769902462852</v>
       </c>
       <c r="F20" t="n">
         <v>242.2327217657522</v>
@@ -3742,13 +3810,13 @@
         <v>461</v>
       </c>
       <c r="C21" t="n">
-        <v>420.0640493675936</v>
+        <v>420.0527584167403</v>
       </c>
       <c r="D21" t="n">
-        <v>423.9647620584707</v>
+        <v>424.0998661632613</v>
       </c>
       <c r="E21" t="n">
-        <v>420.2430323086059</v>
+        <v>413.2090889860304</v>
       </c>
       <c r="F21" t="n">
         <v>242.2327217657522</v>
@@ -3762,13 +3830,13 @@
         <v>472</v>
       </c>
       <c r="C22" t="n">
-        <v>437.274821579322</v>
+        <v>437.2627678132581</v>
       </c>
       <c r="D22" t="n">
-        <v>441.1406445242494</v>
+        <v>441.2662663149974</v>
       </c>
       <c r="E22" t="n">
-        <v>435.2430291735771</v>
+        <v>427.9943808994027</v>
       </c>
       <c r="F22" t="n">
         <v>242.2327217657522</v>
@@ -3782,13 +3850,13 @@
         <v>535</v>
       </c>
       <c r="C23" t="n">
-        <v>517.690124449108</v>
+        <v>517.6714865257654</v>
       </c>
       <c r="D23" t="n">
-        <v>521.5005905983958</v>
+        <v>521.597448984193</v>
       </c>
       <c r="E23" t="n">
-        <v>507.2430297554174</v>
+        <v>499.8223042080893</v>
       </c>
       <c r="F23" t="n">
         <v>242.2327217657522</v>
@@ -3802,13 +3870,13 @@
         <v>622</v>
       </c>
       <c r="C24" t="n">
-        <v>577.8615510995983</v>
+        <v>577.8415855358619</v>
       </c>
       <c r="D24" t="n">
-        <v>581.6434778203266</v>
+        <v>581.7226586720482</v>
       </c>
       <c r="E24" t="n">
-        <v>563.2430296474317</v>
+        <v>555.684394229204</v>
       </c>
       <c r="F24" t="n">
         <v>242.2327217657522</v>
@@ -3822,13 +3890,13 @@
         <v>606</v>
       </c>
       <c r="C25" t="n">
-        <v>591.6299643053113</v>
+        <v>591.6096087858754</v>
       </c>
       <c r="D25" t="n">
-        <v>595.4730948742997</v>
+        <v>595.5285762470712</v>
       </c>
       <c r="E25" t="n">
-        <v>577.2430296674731</v>
+        <v>569.5738669861997</v>
       </c>
       <c r="F25" t="n">
         <v>242.2327217657522</v>
@@ -3842,13 +3910,13 @@
         <v>508</v>
       </c>
       <c r="C26" t="n">
-        <v>514.787544259216</v>
+        <v>514.7718978258939</v>
       </c>
       <c r="D26" t="n">
-        <v>520.0436920180399</v>
+        <v>520.1448256199359</v>
       </c>
       <c r="E26" t="n">
-        <v>512.0159102663342</v>
+        <v>505.3066360010957</v>
       </c>
       <c r="F26" t="n">
         <v>242.2327217657522</v>
@@ -3862,13 +3930,13 @@
         <v>461</v>
       </c>
       <c r="C27" t="n">
-        <v>449.4635915933031</v>
+        <v>449.4538585890911</v>
       </c>
       <c r="D27" t="n">
-        <v>456.001871990242</v>
+        <v>456.1379755787486</v>
       </c>
       <c r="E27" t="n">
-        <v>455.4292486678885</v>
+        <v>447.2910202482313</v>
       </c>
       <c r="F27" t="n">
         <v>242.2327217657522</v>
@@ -3882,13 +3950,13 @@
         <v>390</v>
       </c>
       <c r="C28" t="n">
-        <v>402.1909907828367</v>
+        <v>402.1836274126649</v>
       </c>
       <c r="D28" t="n">
-        <v>408.0141033277761</v>
+        <v>408.1624759851717</v>
       </c>
       <c r="E28" t="n">
-        <v>413.3525358369052</v>
+        <v>404.4770602286366</v>
       </c>
       <c r="F28" t="n">
         <v>242.2327217657522</v>
@@ -3902,13 +3970,13 @@
         <v>432</v>
       </c>
       <c r="C29" t="n">
-        <v>438.124533629147</v>
+        <v>438.1146320686238</v>
       </c>
       <c r="D29" t="n">
-        <v>444.3924182333876</v>
+        <v>444.5483395684075</v>
       </c>
       <c r="E29" t="n">
-        <v>444.3667732230647</v>
+        <v>434.8247161589131</v>
       </c>
       <c r="F29" t="n">
         <v>242.2327217657522</v>
@@ -3920,6 +3988,256 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>arima4</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>arima2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>arima3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arima1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>22282</v>
+      </c>
+      <c r="B2" t="n">
+        <v>451.4591371237576</v>
+      </c>
+      <c r="C2" t="n">
+        <v>451.0474233731377</v>
+      </c>
+      <c r="D2" t="n">
+        <v>444.3498331039633</v>
+      </c>
+      <c r="E2" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>22313</v>
+      </c>
+      <c r="B3" t="n">
+        <v>425.1124990972848</v>
+      </c>
+      <c r="C3" t="n">
+        <v>424.5357012091908</v>
+      </c>
+      <c r="D3" t="n">
+        <v>418.2438672521797</v>
+      </c>
+      <c r="E3" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>22341</v>
+      </c>
+      <c r="B4" t="n">
+        <v>467.1796529714489</v>
+      </c>
+      <c r="C4" t="n">
+        <v>466.601294360477</v>
+      </c>
+      <c r="D4" t="n">
+        <v>446.2759647341424</v>
+      </c>
+      <c r="E4" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>22372</v>
+      </c>
+      <c r="B5" t="n">
+        <v>495.152796886264</v>
+      </c>
+      <c r="C5" t="n">
+        <v>494.6397047109912</v>
+      </c>
+      <c r="D5" t="n">
+        <v>488.2662422779831</v>
+      </c>
+      <c r="E5" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>22402</v>
+      </c>
+      <c r="B6" t="n">
+        <v>512.6328033357502</v>
+      </c>
+      <c r="C6" t="n">
+        <v>512.1335709071662</v>
+      </c>
+      <c r="D6" t="n">
+        <v>499.2691872489899</v>
+      </c>
+      <c r="E6" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>22433</v>
+      </c>
+      <c r="B7" t="n">
+        <v>576.1672358207859</v>
+      </c>
+      <c r="C7" t="n">
+        <v>575.67315689343</v>
+      </c>
+      <c r="D7" t="n">
+        <v>562.2682952054477</v>
+      </c>
+      <c r="E7" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>22463</v>
+      </c>
+      <c r="B8" t="n">
+        <v>666.1959679628384</v>
+      </c>
+      <c r="C8" t="n">
+        <v>665.7816508687034</v>
+      </c>
+      <c r="D8" t="n">
+        <v>649.2685654090182</v>
+      </c>
+      <c r="E8" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>22494</v>
+      </c>
+      <c r="B9" t="n">
+        <v>658.2364711157092</v>
+      </c>
+      <c r="C9" t="n">
+        <v>657.8092058654179</v>
+      </c>
+      <c r="D9" t="n">
+        <v>633.2684835632718</v>
+      </c>
+      <c r="E9" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>22525</v>
+      </c>
+      <c r="B10" t="n">
+        <v>552.6899891915468</v>
+      </c>
+      <c r="C10" t="n">
+        <v>552.1909182804427</v>
+      </c>
+      <c r="D10" t="n">
+        <v>535.2685083546771</v>
+      </c>
+      <c r="E10" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>22555</v>
+      </c>
+      <c r="B11" t="n">
+        <v>499.8200391359002</v>
+      </c>
+      <c r="C11" t="n">
+        <v>499.3103306594147</v>
+      </c>
+      <c r="D11" t="n">
+        <v>488.2685008452611</v>
+      </c>
+      <c r="E11" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>22586</v>
+      </c>
+      <c r="B12" t="n">
+        <v>432.7623060248544</v>
+      </c>
+      <c r="C12" t="n">
+        <v>432.2071194981135</v>
+      </c>
+      <c r="D12" t="n">
+        <v>417.2685031198934</v>
+      </c>
+      <c r="E12" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>22616</v>
+      </c>
+      <c r="B13" t="n">
+        <v>477.5182491535732</v>
+      </c>
+      <c r="C13" t="n">
+        <v>476.9969761525745</v>
+      </c>
+      <c r="D13" t="n">
+        <v>459.2685024308981</v>
+      </c>
+      <c r="E13" t="n">
+        <v>280.2986053603354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3973,13 +4291,13 @@
         <v>404</v>
       </c>
       <c r="C2" t="n">
-        <v>436.5353511907536</v>
+        <v>436.5338292508448</v>
       </c>
       <c r="D2" t="n">
-        <v>437.9451488691266</v>
+        <v>437.9718247358352</v>
       </c>
       <c r="E2" t="n">
-        <v>439.7728806025806</v>
+        <v>440.8213505051179</v>
       </c>
       <c r="F2" t="n">
         <v>242.2327217657522</v>
@@ -3993,13 +4311,13 @@
         <v>359</v>
       </c>
       <c r="C3" t="n">
-        <v>377.6377673990267</v>
+        <v>377.6371981033059</v>
       </c>
       <c r="D3" t="n">
-        <v>380.2974225175967</v>
+        <v>380.3419482205641</v>
       </c>
       <c r="E3" t="n">
-        <v>383.1862190034445</v>
+        <v>382.8767279318231</v>
       </c>
       <c r="F3" t="n">
         <v>242.2327217657522</v>
@@ -4013,13 +4331,13 @@
         <v>310</v>
       </c>
       <c r="C4" t="n">
-        <v>334.7612744547981</v>
+        <v>334.7601881275545</v>
       </c>
       <c r="D4" t="n">
-        <v>336.6701249751483</v>
+        <v>336.7194361707129</v>
       </c>
       <c r="E4" t="n">
-        <v>341.1095061725893</v>
+        <v>340.1196650307207</v>
       </c>
       <c r="F4" t="n">
         <v>242.2327217657522</v>
@@ -4033,13 +4351,13 @@
         <v>337</v>
       </c>
       <c r="C5" t="n">
-        <v>368.358189651823</v>
+        <v>368.3542729555913</v>
       </c>
       <c r="D5" t="n">
-        <v>370.6721972491433</v>
+        <v>370.7273179389018</v>
       </c>
       <c r="E5" t="n">
-        <v>372.123743558725</v>
+        <v>370.5129208638665</v>
       </c>
       <c r="F5" t="n">
         <v>242.2327217657522</v>
@@ -4053,13 +4371,13 @@
         <v>360</v>
       </c>
       <c r="C6" t="n">
-        <v>374.1458487428234</v>
+        <v>374.1395493774649</v>
       </c>
       <c r="D6" t="n">
-        <v>376.1976801367973</v>
+        <v>376.2545104254584</v>
       </c>
       <c r="E6" t="n">
-        <v>376.1211011954891</v>
+        <v>374.0266488731566</v>
       </c>
       <c r="F6" t="n">
         <v>242.2327217657522</v>
@@ -4073,13 +4391,13 @@
         <v>342</v>
       </c>
       <c r="C7" t="n">
-        <v>351.4654247221643</v>
+        <v>351.4585294229796</v>
       </c>
       <c r="D7" t="n">
-        <v>353.6348885866233</v>
+        <v>353.7042107460638</v>
       </c>
       <c r="E7" t="n">
-        <v>354.1215916003573</v>
+        <v>351.6369286881651</v>
       </c>
       <c r="F7" t="n">
         <v>242.2327217657522</v>
@@ -4093,13 +4411,13 @@
         <v>406</v>
       </c>
       <c r="C8" t="n">
-        <v>401.2609257015596</v>
+        <v>401.2464407449835</v>
       </c>
       <c r="D8" t="n">
-        <v>403.2193944635058</v>
+        <v>403.291801496395</v>
       </c>
       <c r="E8" t="n">
-        <v>398.1215005845077</v>
+        <v>395.324589451089</v>
       </c>
       <c r="F8" t="n">
         <v>242.2327217657522</v>
@@ -4113,13 +4431,13 @@
         <v>396</v>
       </c>
       <c r="C9" t="n">
-        <v>387.8447031295033</v>
+        <v>387.8286029672588</v>
       </c>
       <c r="D9" t="n">
-        <v>389.8142988570226</v>
+        <v>389.8948471678091</v>
       </c>
       <c r="E9" t="n">
-        <v>384.121517476438</v>
+        <v>381.0742667765797</v>
       </c>
       <c r="F9" t="n">
         <v>242.2327217657522</v>
@@ -4133,13 +4451,13 @@
         <v>420</v>
       </c>
       <c r="C10" t="n">
-        <v>402.9808374704517</v>
+        <v>402.9662391884097</v>
       </c>
       <c r="D10" t="n">
-        <v>404.9477159146676</v>
+        <v>405.0204418656579</v>
       </c>
       <c r="E10" t="n">
-        <v>399.1215143414092</v>
+        <v>395.8736469570526</v>
       </c>
       <c r="F10" t="n">
         <v>242.2327217657522</v>
@@ -4153,13 +4471,13 @@
         <v>472</v>
       </c>
       <c r="C11" t="n">
-        <v>479.0794268252364</v>
+        <v>479.0611167638305</v>
       </c>
       <c r="D11" t="n">
-        <v>481.0279277661339</v>
+        <v>481.0828563980685</v>
       </c>
       <c r="E11" t="n">
-        <v>471.1215149232495</v>
+        <v>467.7128612349202</v>
       </c>
       <c r="F11" t="n">
         <v>242.2327217657522</v>
@@ -4173,13 +4491,13 @@
         <v>548</v>
       </c>
       <c r="C12" t="n">
-        <v>535.6309902759155</v>
+        <v>535.6149745231992</v>
       </c>
       <c r="D12" t="n">
-        <v>537.6072912175422</v>
+        <v>537.6487020964604</v>
       </c>
       <c r="E12" t="n">
-        <v>527.1215148152639</v>
+        <v>523.5840003451907</v>
       </c>
       <c r="F12" t="n">
         <v>242.2327217657522</v>
@@ -4193,13 +4511,13 @@
         <v>559</v>
       </c>
       <c r="C13" t="n">
-        <v>547.8107726581947</v>
+        <v>547.7980283639345</v>
       </c>
       <c r="D13" t="n">
-        <v>549.8770618612675</v>
+        <v>549.9023592437325</v>
       </c>
       <c r="E13" t="n">
-        <v>541.1215148353053</v>
+        <v>537.480725448131</v>
       </c>
       <c r="F13" t="n">
         <v>242.2327217657522</v>
@@ -4213,13 +4531,13 @@
         <v>463</v>
       </c>
       <c r="C14" t="n">
-        <v>475.3343141259315</v>
+        <v>475.3236318582438</v>
       </c>
       <c r="D14" t="n">
-        <v>478.611077864157</v>
+        <v>478.6716352519483</v>
       </c>
       <c r="E14" t="n">
-        <v>475.8943954341664</v>
+        <v>473.2193068183697</v>
       </c>
       <c r="F14" t="n">
         <v>242.2327217657522</v>
@@ -4233,13 +4551,13 @@
         <v>407</v>
       </c>
       <c r="C15" t="n">
-        <v>413.0366447451038</v>
+        <v>413.0301306232778</v>
       </c>
       <c r="D15" t="n">
-        <v>417.4162939102168</v>
+        <v>417.5026337489207</v>
       </c>
       <c r="E15" t="n">
-        <v>419.3077338357206</v>
+        <v>415.2083493477889</v>
       </c>
       <c r="F15" t="n">
         <v>242.2327217657522</v>
@@ -4253,13 +4571,13 @@
         <v>362</v>
       </c>
       <c r="C16" t="n">
-        <v>367.7749371645182</v>
+        <v>367.7701019707224</v>
       </c>
       <c r="D16" t="n">
-        <v>371.5306383326069</v>
+        <v>371.6260115637393</v>
       </c>
       <c r="E16" t="n">
-        <v>377.2310210047373</v>
+        <v>372.3981226845626</v>
       </c>
       <c r="F16" t="n">
         <v>242.2327217657522</v>
@@ -4273,13 +4591,13 @@
         <v>405</v>
       </c>
       <c r="C17" t="n">
-        <v>402.3398676109092</v>
+        <v>402.3331263580571</v>
       </c>
       <c r="D17" t="n">
-        <v>406.4750587498256</v>
+        <v>406.5755994254872</v>
       </c>
       <c r="E17" t="n">
-        <v>408.2452583908968</v>
+        <v>402.7487706940919</v>
       </c>
       <c r="F17" t="n">
         <v>242.2327217657522</v>
@@ -4293,13 +4611,13 @@
         <v>417</v>
       </c>
       <c r="C18" t="n">
-        <v>408.2400714710369</v>
+        <v>408.232229793001</v>
       </c>
       <c r="D18" t="n">
-        <v>412.1748504211137</v>
+        <v>412.2797710971028</v>
       </c>
       <c r="E18" t="n">
-        <v>412.2426160276564</v>
+        <v>406.22835088237</v>
       </c>
       <c r="F18" t="n">
         <v>242.2327217657522</v>
@@ -4313,13 +4631,13 @@
         <v>391</v>
       </c>
       <c r="C19" t="n">
-        <v>383.0754448806168</v>
+        <v>383.0696768264326</v>
       </c>
       <c r="D19" t="n">
-        <v>387.1434179611473</v>
+        <v>387.2643122404937</v>
       </c>
       <c r="E19" t="n">
-        <v>390.2431064325253</v>
+        <v>383.8112631019256</v>
       </c>
       <c r="F19" t="n">
         <v>242.2327217657522</v>
@@ -4333,13 +4651,13 @@
         <v>419</v>
       </c>
       <c r="C20" t="n">
-        <v>434.5201437504227</v>
+        <v>434.5087881018126</v>
       </c>
       <c r="D20" t="n">
-        <v>438.3979087948562</v>
+        <v>438.5223327577543</v>
       </c>
       <c r="E20" t="n">
-        <v>434.2430154166755</v>
+        <v>427.4769902462852</v>
       </c>
       <c r="F20" t="n">
         <v>242.2327217657522</v>
@@ -4353,13 +4671,13 @@
         <v>461</v>
       </c>
       <c r="C21" t="n">
-        <v>420.0640493675936</v>
+        <v>420.0527584167403</v>
       </c>
       <c r="D21" t="n">
-        <v>423.9647620584707</v>
+        <v>424.0998661632613</v>
       </c>
       <c r="E21" t="n">
-        <v>420.2430323086059</v>
+        <v>413.2090889860304</v>
       </c>
       <c r="F21" t="n">
         <v>242.2327217657522</v>
@@ -4373,13 +4691,13 @@
         <v>472</v>
       </c>
       <c r="C22" t="n">
-        <v>437.274821579322</v>
+        <v>437.2627678132581</v>
       </c>
       <c r="D22" t="n">
-        <v>441.1406445242494</v>
+        <v>441.2662663149974</v>
       </c>
       <c r="E22" t="n">
-        <v>435.2430291735771</v>
+        <v>427.9943808994027</v>
       </c>
       <c r="F22" t="n">
         <v>242.2327217657522</v>
@@ -4393,13 +4711,13 @@
         <v>535</v>
       </c>
       <c r="C23" t="n">
-        <v>517.690124449108</v>
+        <v>517.6714865257654</v>
       </c>
       <c r="D23" t="n">
-        <v>521.5005905983958</v>
+        <v>521.597448984193</v>
       </c>
       <c r="E23" t="n">
-        <v>507.2430297554174</v>
+        <v>499.8223042080893</v>
       </c>
       <c r="F23" t="n">
         <v>242.2327217657522</v>
@@ -4413,13 +4731,13 @@
         <v>622</v>
       </c>
       <c r="C24" t="n">
-        <v>577.8615510995983</v>
+        <v>577.8415855358619</v>
       </c>
       <c r="D24" t="n">
-        <v>581.6434778203266</v>
+        <v>581.7226586720482</v>
       </c>
       <c r="E24" t="n">
-        <v>563.2430296474317</v>
+        <v>555.684394229204</v>
       </c>
       <c r="F24" t="n">
         <v>242.2327217657522</v>
@@ -4433,13 +4751,13 @@
         <v>606</v>
       </c>
       <c r="C25" t="n">
-        <v>591.6299643053113</v>
+        <v>591.6096087858754</v>
       </c>
       <c r="D25" t="n">
-        <v>595.4730948742997</v>
+        <v>595.5285762470712</v>
       </c>
       <c r="E25" t="n">
-        <v>577.2430296674731</v>
+        <v>569.5738669861997</v>
       </c>
       <c r="F25" t="n">
         <v>242.2327217657522</v>
@@ -4453,13 +4771,13 @@
         <v>508</v>
       </c>
       <c r="C26" t="n">
-        <v>514.787544259216</v>
+        <v>514.7718978258939</v>
       </c>
       <c r="D26" t="n">
-        <v>520.0436920180399</v>
+        <v>520.1448256199359</v>
       </c>
       <c r="E26" t="n">
-        <v>512.0159102663342</v>
+        <v>505.3066360010957</v>
       </c>
       <c r="F26" t="n">
         <v>242.2327217657522</v>
@@ -4473,13 +4791,13 @@
         <v>461</v>
       </c>
       <c r="C27" t="n">
-        <v>449.4635915933031</v>
+        <v>449.4538585890911</v>
       </c>
       <c r="D27" t="n">
-        <v>456.001871990242</v>
+        <v>456.1379755787486</v>
       </c>
       <c r="E27" t="n">
-        <v>455.4292486678885</v>
+        <v>447.2910202482313</v>
       </c>
       <c r="F27" t="n">
         <v>242.2327217657522</v>
@@ -4493,13 +4811,13 @@
         <v>390</v>
       </c>
       <c r="C28" t="n">
-        <v>402.1909907828367</v>
+        <v>402.1836274126649</v>
       </c>
       <c r="D28" t="n">
-        <v>408.0141033277761</v>
+        <v>408.1624759851717</v>
       </c>
       <c r="E28" t="n">
-        <v>413.3525358369052</v>
+        <v>404.4770602286366</v>
       </c>
       <c r="F28" t="n">
         <v>242.2327217657522</v>
@@ -4513,266 +4831,16 @@
         <v>432</v>
       </c>
       <c r="C29" t="n">
-        <v>438.124533629147</v>
+        <v>438.1146320686238</v>
       </c>
       <c r="D29" t="n">
-        <v>444.3924182333876</v>
+        <v>444.5483395684075</v>
       </c>
       <c r="E29" t="n">
-        <v>444.3667732230647</v>
+        <v>434.8247161589131</v>
       </c>
       <c r="F29" t="n">
         <v>242.2327217657522</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>arima4</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>arima2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>arima3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>arima1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>22282</v>
-      </c>
-      <c r="B2" t="n">
-        <v>451.4815094415424</v>
-      </c>
-      <c r="C2" t="n">
-        <v>451.0382001637292</v>
-      </c>
-      <c r="D2" t="n">
-        <v>444.3076088535718</v>
-      </c>
-      <c r="E2" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>22313</v>
-      </c>
-      <c r="B3" t="n">
-        <v>425.1206084587052</v>
-      </c>
-      <c r="C3" t="n">
-        <v>424.5139950156517</v>
-      </c>
-      <c r="D3" t="n">
-        <v>418.2129856467799</v>
-      </c>
-      <c r="E3" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>22341</v>
-      </c>
-      <c r="B4" t="n">
-        <v>467.1823211911635</v>
-      </c>
-      <c r="C4" t="n">
-        <v>466.582288573334</v>
-      </c>
-      <c r="D4" t="n">
-        <v>446.2420925829417</v>
-      </c>
-      <c r="E4" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>22372</v>
-      </c>
-      <c r="B5" t="n">
-        <v>495.1893787265878</v>
-      </c>
-      <c r="C5" t="n">
-        <v>494.625885452314</v>
-      </c>
-      <c r="D5" t="n">
-        <v>488.2331390316783</v>
-      </c>
-      <c r="E5" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>22402</v>
-      </c>
-      <c r="B6" t="n">
-        <v>512.6741708206189</v>
-      </c>
-      <c r="C6" t="n">
-        <v>512.1179785735696</v>
-      </c>
-      <c r="D6" t="n">
-        <v>499.2358932233178</v>
-      </c>
-      <c r="E6" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>22433</v>
-      </c>
-      <c r="B7" t="n">
-        <v>576.2258459892338</v>
-      </c>
-      <c r="C7" t="n">
-        <v>575.6847201136479</v>
-      </c>
-      <c r="D7" t="n">
-        <v>562.2350460095851</v>
-      </c>
-      <c r="E7" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>22463</v>
-      </c>
-      <c r="B8" t="n">
-        <v>666.2893041307465</v>
-      </c>
-      <c r="C8" t="n">
-        <v>665.7909480003775</v>
-      </c>
-      <c r="D8" t="n">
-        <v>649.2353066200301</v>
-      </c>
-      <c r="E8" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>22494</v>
-      </c>
-      <c r="B9" t="n">
-        <v>658.317323933609</v>
-      </c>
-      <c r="C9" t="n">
-        <v>657.8075879998648</v>
-      </c>
-      <c r="D9" t="n">
-        <v>633.2352264539498</v>
-      </c>
-      <c r="E9" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>22525</v>
-      </c>
-      <c r="B10" t="n">
-        <v>552.7350680759429</v>
-      </c>
-      <c r="C10" t="n">
-        <v>552.1824440795825</v>
-      </c>
-      <c r="D10" t="n">
-        <v>535.2352511137459</v>
-      </c>
-      <c r="E10" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>22555</v>
-      </c>
-      <c r="B11" t="n">
-        <v>499.8571516543738</v>
-      </c>
-      <c r="C11" t="n">
-        <v>499.295430714633</v>
-      </c>
-      <c r="D11" t="n">
-        <v>488.2352435281742</v>
-      </c>
-      <c r="E11" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>22586</v>
-      </c>
-      <c r="B12" t="n">
-        <v>432.7712125058507</v>
-      </c>
-      <c r="C12" t="n">
-        <v>432.1780703871877</v>
-      </c>
-      <c r="D12" t="n">
-        <v>417.2352458615632</v>
-      </c>
-      <c r="E12" t="n">
-        <v>280.2986053603354</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>22616</v>
-      </c>
-      <c r="B13" t="n">
-        <v>477.5373026395505</v>
-      </c>
-      <c r="C13" t="n">
-        <v>476.9705503966624</v>
-      </c>
-      <c r="D13" t="n">
-        <v>459.2352451437922</v>
-      </c>
-      <c r="E13" t="n">
-        <v>280.2986053603354</v>
       </c>
     </row>
   </sheetData>

--- a/arima/arima_results.xlsx
+++ b/arima/arima_results.xlsx
@@ -687,7 +687,7 @@
         <v>0.95</v>
       </c>
       <c r="S2" t="n">
-        <v>30.79355257529719</v>
+        <v>30.46837930165818</v>
       </c>
       <c r="T2" t="n">
         <v>15.24908273647975</v>
@@ -800,7 +800,7 @@
         <v>0.95</v>
       </c>
       <c r="S3" t="n">
-        <v>33.54553684369144</v>
+        <v>35.73647839627925</v>
       </c>
       <c r="T3" t="n">
         <v>15.24615746246677</v>
@@ -905,7 +905,7 @@
         <v>0.95</v>
       </c>
       <c r="S4" t="n">
-        <v>29.68498719928457</v>
+        <v>21.9224818097891</v>
       </c>
       <c r="T4" t="n">
         <v>15.70138041687357</v>
@@ -1010,7 +1010,7 @@
         <v>0.95</v>
       </c>
       <c r="S5" t="n">
-        <v>230.8841316203446</v>
+        <v>220.6925593949286</v>
       </c>
       <c r="T5" t="n">
         <v>119.5490415327716</v>
